--- a/src/main/webapp/uppda/excel.xlsx
+++ b/src/main/webapp/uppda/excel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,6 @@
     <t>代收款</t>
   </si>
   <si>
-    <t>保价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>cat</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -239,6 +235,10 @@
   </si>
   <si>
     <t>r23235252884</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保价费用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -826,20 +826,20 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="26" max="26" width="12.25" customWidth="1"/>
-    <col min="28" max="28" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" customWidth="1"/>
+    <col min="28" max="28" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="2" customFormat="1" ht="28.5" customHeight="1">
@@ -936,16 +936,16 @@
         <v>19</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="T2" s="6" t="s">
         <v>21</v>
@@ -987,96 +987,96 @@
         <v>31</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="14" customFormat="1" ht="27.75" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="O3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P3" s="11"/>
       <c r="Q3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF3" s="13">
         <v>12</v>
@@ -1085,10 +1085,10 @@
         <v>12</v>
       </c>
       <c r="AH3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1110,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1123,7 +1123,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
